--- a/metadata/juno/metadata/tests/test-data-files/validation_test_spreadsheet.xlsx
+++ b/metadata/juno/metadata/tests/test-data-files/validation_test_spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kp11/workspace/pathogens-gitlab/monocle/metadata/juno/metadata/tests/test-data-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A3BFE9-121E-0F4D-850A-BF5ADDE928B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C03D3BE-F419-A94C-8AC8-FAE91E8B704B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3760" yWindow="460" windowWidth="31500" windowHeight="20660" xr2:uid="{C6880AE4-86A7-2445-AC81-7EA4C295E861}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="523">
   <si>
     <t>Country</t>
   </si>
@@ -530,6 +530,1168 @@
       </rPr>
       <t>human, bovine, fish, camel, other (enter species name if known)</t>
     </r>
+  </si>
+  <si>
+    <t>For options please refer to 'Entry values' tab; if carriage sample, please enter 'NA'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sample isolation source/site; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>for options please refer to 'Entry values' tab</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Options: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ia, Ib, II, III, IV, V, VI, VII, VIII, IX, NT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For maternal carriage isolates only; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>for Options please refer to 'Entry values' tab</t>
+    </r>
+  </si>
+  <si>
+    <t>For maternal carriage or neonatal carriage/disease isolates only</t>
+  </si>
+  <si>
+    <t>Lane_ID</t>
+  </si>
+  <si>
+    <t>neonate</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>invasive disease</t>
+  </si>
+  <si>
+    <t>non-invasive other</t>
+  </si>
+  <si>
+    <t>non-invasive disease</t>
+  </si>
+  <si>
+    <r>
+      <t>Was isolate selected randomly?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Options: yes/no</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Options: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>disk diffusion; broth dilution; agar dilution; Etest</t>
+    </r>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>Ia</t>
+  </si>
+  <si>
+    <t>Ib</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>IX</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>1000STDY7000167</t>
+  </si>
+  <si>
+    <t>1000STDY7000168</t>
+  </si>
+  <si>
+    <t>1000STDY7000169</t>
+  </si>
+  <si>
+    <t>1000STDY7000170</t>
+  </si>
+  <si>
+    <t>1000STDY7000171</t>
+  </si>
+  <si>
+    <t>1000STDY7000172</t>
+  </si>
+  <si>
+    <t>1000STDY7000173</t>
+  </si>
+  <si>
+    <t>1000STDY7000174</t>
+  </si>
+  <si>
+    <t>1000STDY7000175</t>
+  </si>
+  <si>
+    <t>1000STDY7000176</t>
+  </si>
+  <si>
+    <t>1000STDY7000177</t>
+  </si>
+  <si>
+    <t>1000STDY7000178</t>
+  </si>
+  <si>
+    <t>1000STDY7000179</t>
+  </si>
+  <si>
+    <t>1000STDY7000180</t>
+  </si>
+  <si>
+    <t>1000STDY7000181</t>
+  </si>
+  <si>
+    <t>1000STDY7000182</t>
+  </si>
+  <si>
+    <t>1000STDY7000183</t>
+  </si>
+  <si>
+    <t>1000STDY7000184</t>
+  </si>
+  <si>
+    <t>1000STDY7000185</t>
+  </si>
+  <si>
+    <t>1000STDY7000186</t>
+  </si>
+  <si>
+    <t>1000STDY7000187</t>
+  </si>
+  <si>
+    <t>1000STDY7000188</t>
+  </si>
+  <si>
+    <t>1000STDY7000189</t>
+  </si>
+  <si>
+    <t>1000STDY7000190</t>
+  </si>
+  <si>
+    <t>1000STDY7000191</t>
+  </si>
+  <si>
+    <t>1000STDY7000192</t>
+  </si>
+  <si>
+    <t>1000STDY7000193</t>
+  </si>
+  <si>
+    <t>1000STDY7000194</t>
+  </si>
+  <si>
+    <t>1000STDY7000195</t>
+  </si>
+  <si>
+    <t>1000STDY7000196</t>
+  </si>
+  <si>
+    <t>1000STDY7000197</t>
+  </si>
+  <si>
+    <t>1000STDY7000198</t>
+  </si>
+  <si>
+    <t>1000STDY7000199</t>
+  </si>
+  <si>
+    <t>1000STDY7000200</t>
+  </si>
+  <si>
+    <t>1000STDY7000201</t>
+  </si>
+  <si>
+    <t>1000STDY7000202</t>
+  </si>
+  <si>
+    <t>1000STDY7000203</t>
+  </si>
+  <si>
+    <t>1000STDY7000204</t>
+  </si>
+  <si>
+    <t>1000STDY7000205</t>
+  </si>
+  <si>
+    <t>1000STDY7000206</t>
+  </si>
+  <si>
+    <t>1000STDY7000207</t>
+  </si>
+  <si>
+    <t>1000STDY7000208</t>
+  </si>
+  <si>
+    <t>1000STDY7000209</t>
+  </si>
+  <si>
+    <t>1000STDY7000210</t>
+  </si>
+  <si>
+    <t>1000STDY7000211</t>
+  </si>
+  <si>
+    <t>1000STDY7000212</t>
+  </si>
+  <si>
+    <t>1000STDY7000213</t>
+  </si>
+  <si>
+    <t>1000STDY7000214</t>
+  </si>
+  <si>
+    <t>1000STDY7000216</t>
+  </si>
+  <si>
+    <t>1000STDY7000217</t>
+  </si>
+  <si>
+    <t>1000STDY7000218</t>
+  </si>
+  <si>
+    <t>1000STDY7000219</t>
+  </si>
+  <si>
+    <t>1000STDY7000220</t>
+  </si>
+  <si>
+    <t>1000STDY7000221</t>
+  </si>
+  <si>
+    <t>1000STDY7000222</t>
+  </si>
+  <si>
+    <t>1000STDY7000223</t>
+  </si>
+  <si>
+    <t>50000_2#282</t>
+  </si>
+  <si>
+    <t>50000_2#287</t>
+  </si>
+  <si>
+    <t>50000_2#291</t>
+  </si>
+  <si>
+    <t>50000_2#296</t>
+  </si>
+  <si>
+    <t>50000_2#299</t>
+  </si>
+  <si>
+    <t>50000_2#304</t>
+  </si>
+  <si>
+    <t>50000_2#317</t>
+  </si>
+  <si>
+    <t>50000_2#178</t>
+  </si>
+  <si>
+    <t>50000_2#182</t>
+  </si>
+  <si>
+    <t>50000_2#186</t>
+  </si>
+  <si>
+    <t>50000_2#321</t>
+  </si>
+  <si>
+    <t>50000_2#190</t>
+  </si>
+  <si>
+    <t>50000_2#325</t>
+  </si>
+  <si>
+    <t>50000_2#330</t>
+  </si>
+  <si>
+    <t>50000_2#333</t>
+  </si>
+  <si>
+    <t>50000_2#337</t>
+  </si>
+  <si>
+    <t>50000_2#194</t>
+  </si>
+  <si>
+    <t>50000_2#342</t>
+  </si>
+  <si>
+    <t>50000_2#198</t>
+  </si>
+  <si>
+    <t>50000_2#346</t>
+  </si>
+  <si>
+    <t>50000_2#204</t>
+  </si>
+  <si>
+    <t>50000_2#350</t>
+  </si>
+  <si>
+    <t>50000_2#354</t>
+  </si>
+  <si>
+    <t>50000_2#359</t>
+  </si>
+  <si>
+    <t>50000_2#362</t>
+  </si>
+  <si>
+    <t>50000_2#367</t>
+  </si>
+  <si>
+    <t>50000_2#371</t>
+  </si>
+  <si>
+    <t>50000_2#375</t>
+  </si>
+  <si>
+    <t>50000_2#379</t>
+  </si>
+  <si>
+    <t>50000_2#383</t>
+  </si>
+  <si>
+    <t>50000_2#4</t>
+  </si>
+  <si>
+    <t>50000_2#8</t>
+  </si>
+  <si>
+    <t>50000_2#9</t>
+  </si>
+  <si>
+    <t>50000_2#13</t>
+  </si>
+  <si>
+    <t>50000_2#17</t>
+  </si>
+  <si>
+    <t>50000_2#207</t>
+  </si>
+  <si>
+    <t>50000_2#211</t>
+  </si>
+  <si>
+    <t>50000_2#215</t>
+  </si>
+  <si>
+    <t>50000_2#219</t>
+  </si>
+  <si>
+    <t>50000_2#223</t>
+  </si>
+  <si>
+    <t>50000_2#227</t>
+  </si>
+  <si>
+    <t>50000_2#230</t>
+  </si>
+  <si>
+    <t>50000_2#21</t>
+  </si>
+  <si>
+    <t>50000_2#25</t>
+  </si>
+  <si>
+    <t>50000_2#29</t>
+  </si>
+  <si>
+    <t>50000_2#233</t>
+  </si>
+  <si>
+    <t>50000_2#38</t>
+  </si>
+  <si>
+    <t>50000_2#238</t>
+  </si>
+  <si>
+    <t>50000_2#241</t>
+  </si>
+  <si>
+    <t>50000_2#42</t>
+  </si>
+  <si>
+    <t>50000_2#245</t>
+  </si>
+  <si>
+    <t>50000_2#46</t>
+  </si>
+  <si>
+    <t>50000_2#50</t>
+  </si>
+  <si>
+    <t>50000_2#54</t>
+  </si>
+  <si>
+    <t>Test Institution A</t>
+  </si>
+  <si>
+    <t>TestCountryA</t>
+  </si>
+  <si>
+    <t>EY70425</t>
+  </si>
+  <si>
+    <t>EY70605</t>
+  </si>
+  <si>
+    <t>EY70676</t>
+  </si>
+  <si>
+    <t>EY70702</t>
+  </si>
+  <si>
+    <t>EY70733</t>
+  </si>
+  <si>
+    <t>EY70753</t>
+  </si>
+  <si>
+    <t>EY70829</t>
+  </si>
+  <si>
+    <t>EY70844</t>
+  </si>
+  <si>
+    <t>EY70846</t>
+  </si>
+  <si>
+    <t>EY70858</t>
+  </si>
+  <si>
+    <t>EY70863</t>
+  </si>
+  <si>
+    <t>EY70864</t>
+  </si>
+  <si>
+    <t>EY70865</t>
+  </si>
+  <si>
+    <t>EY70867</t>
+  </si>
+  <si>
+    <t>EY70877</t>
+  </si>
+  <si>
+    <t>EY70881</t>
+  </si>
+  <si>
+    <t>EY71009</t>
+  </si>
+  <si>
+    <t>EY71012</t>
+  </si>
+  <si>
+    <t>EY71033</t>
+  </si>
+  <si>
+    <t>EY71034</t>
+  </si>
+  <si>
+    <t>EY71158</t>
+  </si>
+  <si>
+    <t>EY71260</t>
+  </si>
+  <si>
+    <t>EY71463</t>
+  </si>
+  <si>
+    <t>EY71482</t>
+  </si>
+  <si>
+    <t>EY71546</t>
+  </si>
+  <si>
+    <t>EY71578</t>
+  </si>
+  <si>
+    <t>EY71632</t>
+  </si>
+  <si>
+    <t>EY71640</t>
+  </si>
+  <si>
+    <t>EY71656</t>
+  </si>
+  <si>
+    <t>EY71662</t>
+  </si>
+  <si>
+    <t>EY71769</t>
+  </si>
+  <si>
+    <t>EY71774</t>
+  </si>
+  <si>
+    <t>EY71781</t>
+  </si>
+  <si>
+    <t>EY71825</t>
+  </si>
+  <si>
+    <t>EY71833</t>
+  </si>
+  <si>
+    <t>EY71835</t>
+  </si>
+  <si>
+    <t>EY71837</t>
+  </si>
+  <si>
+    <t>EY71859</t>
+  </si>
+  <si>
+    <t>EY71877</t>
+  </si>
+  <si>
+    <t>EY71893</t>
+  </si>
+  <si>
+    <t>EY71903</t>
+  </si>
+  <si>
+    <t>EY71990</t>
+  </si>
+  <si>
+    <t>EY71998</t>
+  </si>
+  <si>
+    <t>EY72015</t>
+  </si>
+  <si>
+    <t>EY72036</t>
+  </si>
+  <si>
+    <t>EY72050</t>
+  </si>
+  <si>
+    <t>EY72099</t>
+  </si>
+  <si>
+    <t>EY72119</t>
+  </si>
+  <si>
+    <t>EY72203</t>
+  </si>
+  <si>
+    <t>EY72218</t>
+  </si>
+  <si>
+    <t>EY72242</t>
+  </si>
+  <si>
+    <t>EY72275</t>
+  </si>
+  <si>
+    <t>EY72380</t>
+  </si>
+  <si>
+    <t>EY72384</t>
+  </si>
+  <si>
+    <t>TEST CASE DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ZZZ;;{}{}{[[STUDY</t>
+  </si>
+  <si>
+    <t>%%%%%@qwe</t>
+  </si>
+  <si>
+    <t>Illegal sample id</t>
+  </si>
+  <si>
+    <t>Illegal supplier name</t>
+  </si>
+  <si>
+    <t>EY_70602</t>
+  </si>
+  <si>
+    <t>Legal supplier name</t>
+  </si>
+  <si>
+    <t>EY 70603</t>
+  </si>
+  <si>
+    <t>^&amp;*%RTYUT</t>
+  </si>
+  <si>
+    <t>Illegal public name</t>
+  </si>
+  <si>
+    <t>Legal public name</t>
+  </si>
+  <si>
+    <t>ABCDE_2#FGI</t>
+  </si>
+  <si>
+    <t>ABCDE</t>
+  </si>
+  <si>
+    <t>50000-1%316</t>
+  </si>
+  <si>
+    <t>Illegal lane ID</t>
+  </si>
+  <si>
+    <t>TEST-stUDY NA_ME1</t>
+  </si>
+  <si>
+    <t>Valid study name</t>
+  </si>
+  <si>
+    <t>PMID: 1234567</t>
+  </si>
+  <si>
+    <t>PMID: 12345678</t>
+  </si>
+  <si>
+    <t>PMID: 1</t>
+  </si>
+  <si>
+    <t>PMID: 1234567, PMID: 12345678</t>
+  </si>
+  <si>
+    <t>Valid study ref</t>
+  </si>
+  <si>
+    <t>Invalid study ref</t>
+  </si>
+  <si>
+    <t>Valid study ref (multiple PMIDs)</t>
+  </si>
+  <si>
+    <t>PMID: 1234567,PMID: 12345678</t>
+  </si>
+  <si>
+    <t>PMID: 1, PMID: 223</t>
+  </si>
+  <si>
+    <t>Valid study ref (multiple PMIDs), no space</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Upper case Selection_Random - okay</t>
+  </si>
+  <si>
+    <t>Lower case Selection_Random  - okay</t>
+  </si>
+  <si>
+    <t>Invalid Selection_Random</t>
+  </si>
+  <si>
+    <t>INVALID</t>
+  </si>
+  <si>
+    <t>UNKNOWNCOUNTRY</t>
+  </si>
+  <si>
+    <t>An unknown country name</t>
+  </si>
+  <si>
+    <t>%%%&amp;*</t>
+  </si>
+  <si>
+    <t>Invalid characters in city</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>Unknown institution</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>Invalid collection month</t>
+  </si>
+  <si>
+    <t>Invalid collection day</t>
+  </si>
+  <si>
+    <t>HUMAN</t>
+  </si>
+  <si>
+    <t>Panda</t>
+  </si>
+  <si>
+    <t>Upper case host species - okay</t>
+  </si>
+  <si>
+    <t>Invalid host species</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Camel</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Invalid gender</t>
+  </si>
+  <si>
+    <t>Valid host species, gender</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Invalid characters in county/state, valid gender</t>
+  </si>
+  <si>
+    <t>Valid county/state, valid gender</t>
+  </si>
+  <si>
+    <t>Valid city, collection year, month and day</t>
+  </si>
+  <si>
+    <t>infant</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>Invalid collection year format, valid age group</t>
+  </si>
+  <si>
+    <t>Invalid collection month, valid age group</t>
+  </si>
+  <si>
+    <t>Adolescent</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Valid age years, months, weeks, days</t>
+  </si>
+  <si>
+    <t>Invalid age years, months, weeks, days</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>ZOG</t>
+  </si>
+  <si>
+    <t>finger nails</t>
+  </si>
+  <si>
+    <t>Invalid host status, disease type, disease onset, isolation source</t>
+  </si>
+  <si>
+    <t>IIIIIIII</t>
+  </si>
+  <si>
+    <t>Lancefield</t>
+  </si>
+  <si>
+    <t>PCR, Lancefield</t>
+  </si>
+  <si>
+    <t>Multiple serotype method combination</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Test serotype methods, valid infection during pregnancy</t>
+  </si>
+  <si>
+    <t>HUH?</t>
+  </si>
+  <si>
+    <t>Invalid serotype, invalid infection during pregnancy</t>
+  </si>
+  <si>
+    <t>latex AGGLUTINATION</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>invalid maternal infection type</t>
+  </si>
+  <si>
+    <t>ZZ</t>
+  </si>
+  <si>
+    <t>HHHH</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>Valid maternal infection type. Valid gestational age, birth weight, apgar score</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>broth dilution</t>
+  </si>
+  <si>
+    <t>BROTH DILUTION</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Etest</t>
+  </si>
+  <si>
+    <t>ETEST</t>
+  </si>
+  <si>
+    <t>agar dilution</t>
+  </si>
+  <si>
+    <t>AGAR dilution</t>
+  </si>
+  <si>
+    <t>Valid antibiotic values</t>
+  </si>
+  <si>
+    <t>ZZZ</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>EEE</t>
+  </si>
+  <si>
+    <t>FFF</t>
+  </si>
+  <si>
+    <t>HHH</t>
+  </si>
+  <si>
+    <t>MMMM</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>JJJJ</t>
+  </si>
+  <si>
+    <t>KKKK</t>
+  </si>
+  <si>
+    <t>LLLL</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>disk diffusion</t>
+  </si>
+  <si>
+    <t>DISK diffusion</t>
+  </si>
+  <si>
+    <t>Invalid antibiotic values</t>
+  </si>
+  <si>
+    <t>Fields too long</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00002</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00003</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00004</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00007</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00008</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00009</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00010</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00011</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00012</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00013</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00014</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00015</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00016</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00017</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00018</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00019</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00020</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00021</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00022</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00023</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00024</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00025</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00026</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00027</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00028</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00029</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00030</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00031</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00032</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00033</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00034</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00035</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00036</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00037</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00038</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00039</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00040</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00041</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00042</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00043</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00044</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00045</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00046</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00047</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00048</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00049</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00051</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00052</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00053</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00054</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00055</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00056TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTT</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00057</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00058</t>
+  </si>
+  <si>
+    <t>CD_XX_EW00001</t>
+  </si>
+  <si>
+    <t>CD-XX-EW00006</t>
   </si>
   <si>
     <r>
@@ -549,7 +1711,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>: neonate, infant, child, adolescent, adult, unknown. For reference please check the 'Age classification' tab</t>
+      <t>: neonate, infant, child, adolescent, adult. For reference please check the 'Age classification' tab</t>
     </r>
   </si>
   <si>
@@ -570,11 +1732,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>: carriage, invasive disease, non-invasive disease, unknown</t>
+      <t>: carriage, invasive disease, non-invasive disease</t>
     </r>
-  </si>
-  <si>
-    <t>For options please refer to 'Entry values' tab; if carriage sample, please enter 'NA'</t>
   </si>
   <si>
     <r>
@@ -594,84 +1753,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>EOD, LOD, VLOD, unknown; If other disease or carriage please enter 'NA'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sample isolation source/site; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>for options please refer to 'Entry values' tab</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Options: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ia, Ib, II, III, IV, V, VI, VII, VIII, IX, NT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For maternal carriage isolates only; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>for Options please refer to 'Entry values' tab</t>
-    </r>
-  </si>
-  <si>
-    <t>For maternal carriage or neonatal carriage/disease isolates only</t>
-  </si>
-  <si>
-    <t>Lane_ID</t>
-  </si>
-  <si>
-    <t>neonate</t>
-  </si>
-  <si>
-    <t>adult</t>
-  </si>
-  <si>
-    <t>invasive disease</t>
-  </si>
-  <si>
-    <t>non-invasive other</t>
-  </si>
-  <si>
-    <t>non-invasive disease</t>
-  </si>
-  <si>
-    <r>
-      <t>Was isolate selected randomly?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Options: yes/no</t>
+      <t>EOD, LOD, VLOD; If other disease or carriage please enter 'NA'</t>
     </r>
   </si>
   <si>
@@ -685,1120 +1767,23 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> yes, no, unknown</t>
+      <t xml:space="preserve"> yes, no</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Options: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>disk diffusion; broth dilution; agar dilution; Etest</t>
-    </r>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>VI</t>
-  </si>
-  <si>
-    <t>III</t>
-  </si>
-  <si>
-    <t>Ia</t>
-  </si>
-  <si>
-    <t>Ib</t>
-  </si>
-  <si>
-    <t>IV</t>
-  </si>
-  <si>
-    <t>IX</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>1000STDY7000167</t>
-  </si>
-  <si>
-    <t>1000STDY7000168</t>
-  </si>
-  <si>
-    <t>1000STDY7000169</t>
-  </si>
-  <si>
-    <t>1000STDY7000170</t>
-  </si>
-  <si>
-    <t>1000STDY7000171</t>
-  </si>
-  <si>
-    <t>1000STDY7000172</t>
-  </si>
-  <si>
-    <t>1000STDY7000173</t>
-  </si>
-  <si>
-    <t>1000STDY7000174</t>
-  </si>
-  <si>
-    <t>1000STDY7000175</t>
-  </si>
-  <si>
-    <t>1000STDY7000176</t>
-  </si>
-  <si>
-    <t>1000STDY7000177</t>
-  </si>
-  <si>
-    <t>1000STDY7000178</t>
-  </si>
-  <si>
-    <t>1000STDY7000179</t>
-  </si>
-  <si>
-    <t>1000STDY7000180</t>
-  </si>
-  <si>
-    <t>1000STDY7000181</t>
-  </si>
-  <si>
-    <t>1000STDY7000182</t>
-  </si>
-  <si>
-    <t>1000STDY7000183</t>
-  </si>
-  <si>
-    <t>1000STDY7000184</t>
-  </si>
-  <si>
-    <t>1000STDY7000185</t>
-  </si>
-  <si>
-    <t>1000STDY7000186</t>
-  </si>
-  <si>
-    <t>1000STDY7000187</t>
-  </si>
-  <si>
-    <t>1000STDY7000188</t>
-  </si>
-  <si>
-    <t>1000STDY7000189</t>
-  </si>
-  <si>
-    <t>1000STDY7000190</t>
-  </si>
-  <si>
-    <t>1000STDY7000191</t>
-  </si>
-  <si>
-    <t>1000STDY7000192</t>
-  </si>
-  <si>
-    <t>1000STDY7000193</t>
-  </si>
-  <si>
-    <t>1000STDY7000194</t>
-  </si>
-  <si>
-    <t>1000STDY7000195</t>
-  </si>
-  <si>
-    <t>1000STDY7000196</t>
-  </si>
-  <si>
-    <t>1000STDY7000197</t>
-  </si>
-  <si>
-    <t>1000STDY7000198</t>
-  </si>
-  <si>
-    <t>1000STDY7000199</t>
-  </si>
-  <si>
-    <t>1000STDY7000200</t>
-  </si>
-  <si>
-    <t>1000STDY7000201</t>
-  </si>
-  <si>
-    <t>1000STDY7000202</t>
-  </si>
-  <si>
-    <t>1000STDY7000203</t>
-  </si>
-  <si>
-    <t>1000STDY7000204</t>
-  </si>
-  <si>
-    <t>1000STDY7000205</t>
-  </si>
-  <si>
-    <t>1000STDY7000206</t>
-  </si>
-  <si>
-    <t>1000STDY7000207</t>
-  </si>
-  <si>
-    <t>1000STDY7000208</t>
-  </si>
-  <si>
-    <t>1000STDY7000209</t>
-  </si>
-  <si>
-    <t>1000STDY7000210</t>
-  </si>
-  <si>
-    <t>1000STDY7000211</t>
-  </si>
-  <si>
-    <t>1000STDY7000212</t>
-  </si>
-  <si>
-    <t>1000STDY7000213</t>
-  </si>
-  <si>
-    <t>1000STDY7000214</t>
-  </si>
-  <si>
-    <t>1000STDY7000215</t>
-  </si>
-  <si>
-    <t>1000STDY7000216</t>
-  </si>
-  <si>
-    <t>1000STDY7000217</t>
-  </si>
-  <si>
-    <t>1000STDY7000218</t>
-  </si>
-  <si>
-    <t>1000STDY7000219</t>
-  </si>
-  <si>
-    <t>1000STDY7000220</t>
-  </si>
-  <si>
-    <t>1000STDY7000221</t>
-  </si>
-  <si>
-    <t>1000STDY7000222</t>
-  </si>
-  <si>
-    <t>1000STDY7000223</t>
-  </si>
-  <si>
-    <t>50000_2#282</t>
-  </si>
-  <si>
-    <t>50000_2#287</t>
-  </si>
-  <si>
-    <t>50000_2#291</t>
-  </si>
-  <si>
-    <t>50000_2#296</t>
-  </si>
-  <si>
-    <t>50000_2#299</t>
-  </si>
-  <si>
-    <t>50000_2#304</t>
-  </si>
-  <si>
-    <t>50000_2#317</t>
-  </si>
-  <si>
-    <t>50000_2#178</t>
-  </si>
-  <si>
-    <t>50000_2#182</t>
-  </si>
-  <si>
-    <t>50000_2#186</t>
-  </si>
-  <si>
-    <t>50000_2#321</t>
-  </si>
-  <si>
-    <t>50000_2#190</t>
-  </si>
-  <si>
-    <t>50000_2#325</t>
-  </si>
-  <si>
-    <t>50000_2#330</t>
-  </si>
-  <si>
-    <t>50000_2#333</t>
-  </si>
-  <si>
-    <t>50000_2#337</t>
-  </si>
-  <si>
-    <t>50000_2#194</t>
-  </si>
-  <si>
-    <t>50000_2#342</t>
-  </si>
-  <si>
-    <t>50000_2#198</t>
-  </si>
-  <si>
-    <t>50000_2#346</t>
-  </si>
-  <si>
-    <t>50000_2#204</t>
-  </si>
-  <si>
-    <t>50000_2#350</t>
-  </si>
-  <si>
-    <t>50000_2#354</t>
-  </si>
-  <si>
-    <t>50000_2#359</t>
-  </si>
-  <si>
-    <t>50000_2#362</t>
-  </si>
-  <si>
-    <t>50000_2#367</t>
-  </si>
-  <si>
-    <t>50000_2#371</t>
-  </si>
-  <si>
-    <t>50000_2#375</t>
-  </si>
-  <si>
-    <t>50000_2#379</t>
-  </si>
-  <si>
-    <t>50000_2#383</t>
-  </si>
-  <si>
-    <t>50000_2#4</t>
-  </si>
-  <si>
-    <t>50000_2#8</t>
-  </si>
-  <si>
-    <t>50000_2#9</t>
-  </si>
-  <si>
-    <t>50000_2#13</t>
-  </si>
-  <si>
-    <t>50000_2#17</t>
-  </si>
-  <si>
-    <t>50000_2#207</t>
-  </si>
-  <si>
-    <t>50000_2#211</t>
-  </si>
-  <si>
-    <t>50000_2#215</t>
-  </si>
-  <si>
-    <t>50000_2#219</t>
-  </si>
-  <si>
-    <t>50000_2#223</t>
-  </si>
-  <si>
-    <t>50000_2#227</t>
-  </si>
-  <si>
-    <t>50000_2#230</t>
-  </si>
-  <si>
-    <t>50000_2#21</t>
-  </si>
-  <si>
-    <t>50000_2#25</t>
-  </si>
-  <si>
-    <t>50000_2#29</t>
-  </si>
-  <si>
-    <t>50000_2#233</t>
-  </si>
-  <si>
-    <t>50000_2#33</t>
-  </si>
-  <si>
-    <t>50000_2#38</t>
-  </si>
-  <si>
-    <t>50000_2#238</t>
-  </si>
-  <si>
-    <t>50000_2#241</t>
-  </si>
-  <si>
-    <t>50000_2#42</t>
-  </si>
-  <si>
-    <t>50000_2#245</t>
-  </si>
-  <si>
-    <t>50000_2#46</t>
-  </si>
-  <si>
-    <t>50000_2#50</t>
-  </si>
-  <si>
-    <t>50000_2#54</t>
-  </si>
-  <si>
-    <t>Test Institution A</t>
-  </si>
-  <si>
-    <t>TestCountryA</t>
-  </si>
-  <si>
-    <t>EY70425</t>
-  </si>
-  <si>
-    <t>EY70605</t>
-  </si>
-  <si>
-    <t>EY70676</t>
-  </si>
-  <si>
-    <t>EY70702</t>
-  </si>
-  <si>
-    <t>EY70733</t>
-  </si>
-  <si>
-    <t>EY70753</t>
-  </si>
-  <si>
-    <t>EY70829</t>
-  </si>
-  <si>
-    <t>EY70844</t>
-  </si>
-  <si>
-    <t>EY70846</t>
-  </si>
-  <si>
-    <t>EY70858</t>
-  </si>
-  <si>
-    <t>EY70863</t>
-  </si>
-  <si>
-    <t>EY70864</t>
-  </si>
-  <si>
-    <t>EY70865</t>
-  </si>
-  <si>
-    <t>EY70867</t>
-  </si>
-  <si>
-    <t>EY70877</t>
-  </si>
-  <si>
-    <t>EY70881</t>
-  </si>
-  <si>
-    <t>EY71009</t>
-  </si>
-  <si>
-    <t>EY71012</t>
-  </si>
-  <si>
-    <t>EY71033</t>
-  </si>
-  <si>
-    <t>EY71034</t>
-  </si>
-  <si>
-    <t>EY71158</t>
-  </si>
-  <si>
-    <t>EY71260</t>
-  </si>
-  <si>
-    <t>EY71463</t>
-  </si>
-  <si>
-    <t>EY71482</t>
-  </si>
-  <si>
-    <t>EY71546</t>
-  </si>
-  <si>
-    <t>EY71578</t>
-  </si>
-  <si>
-    <t>EY71632</t>
-  </si>
-  <si>
-    <t>EY71640</t>
-  </si>
-  <si>
-    <t>EY71656</t>
-  </si>
-  <si>
-    <t>EY71662</t>
-  </si>
-  <si>
-    <t>EY71769</t>
-  </si>
-  <si>
-    <t>EY71774</t>
-  </si>
-  <si>
-    <t>EY71781</t>
-  </si>
-  <si>
-    <t>EY71825</t>
-  </si>
-  <si>
-    <t>EY71833</t>
-  </si>
-  <si>
-    <t>EY71835</t>
-  </si>
-  <si>
-    <t>EY71837</t>
-  </si>
-  <si>
-    <t>EY71859</t>
-  </si>
-  <si>
-    <t>EY71877</t>
-  </si>
-  <si>
-    <t>EY71893</t>
-  </si>
-  <si>
-    <t>EY71903</t>
-  </si>
-  <si>
-    <t>EY71990</t>
-  </si>
-  <si>
-    <t>EY71998</t>
-  </si>
-  <si>
-    <t>EY72015</t>
-  </si>
-  <si>
-    <t>EY72036</t>
-  </si>
-  <si>
-    <t>EY72050</t>
-  </si>
-  <si>
-    <t>EY72095</t>
-  </si>
-  <si>
-    <t>EY72099</t>
-  </si>
-  <si>
-    <t>EY72119</t>
-  </si>
-  <si>
-    <t>EY72203</t>
-  </si>
-  <si>
-    <t>EY72218</t>
-  </si>
-  <si>
-    <t>EY72242</t>
-  </si>
-  <si>
-    <t>EY72275</t>
-  </si>
-  <si>
-    <t>EY72380</t>
-  </si>
-  <si>
-    <t>EY72384</t>
-  </si>
-  <si>
-    <t>TEST CASE DESCRIPTION</t>
-  </si>
-  <si>
-    <t>ZZZ;;{}{}{[[STUDY</t>
-  </si>
-  <si>
-    <t>%%%%%@qwe</t>
-  </si>
-  <si>
-    <t>Illegal sample id</t>
-  </si>
-  <si>
-    <t>Illegal supplier name</t>
-  </si>
-  <si>
-    <t>EY_70602</t>
-  </si>
-  <si>
-    <t>Legal supplier name</t>
-  </si>
-  <si>
-    <t>EY 70603</t>
-  </si>
-  <si>
-    <t>^&amp;*%RTYUT</t>
-  </si>
-  <si>
-    <t>Illegal public name</t>
-  </si>
-  <si>
-    <t>Legal public name</t>
-  </si>
-  <si>
-    <t>ABCDE_2#FGI</t>
-  </si>
-  <si>
-    <t>ABCDE</t>
-  </si>
-  <si>
-    <t>50000-1%316</t>
-  </si>
-  <si>
-    <t>Illegal lane ID</t>
-  </si>
-  <si>
-    <t>TEST-stUDY NA_ME1</t>
-  </si>
-  <si>
-    <t>Valid study name</t>
-  </si>
-  <si>
-    <t>PMID: 1234567</t>
-  </si>
-  <si>
-    <t>PMID: 12345678</t>
-  </si>
-  <si>
-    <t>PMID: 1</t>
-  </si>
-  <si>
-    <t>PMID: 1234567, PMID: 12345678</t>
-  </si>
-  <si>
-    <t>Valid study ref</t>
-  </si>
-  <si>
-    <t>Invalid study ref</t>
-  </si>
-  <si>
-    <t>Valid study ref (multiple PMIDs)</t>
-  </si>
-  <si>
-    <t>PMID: 1234567,PMID: 12345678</t>
-  </si>
-  <si>
-    <t>PMID: 1, PMID: 223</t>
-  </si>
-  <si>
-    <t>Valid study ref (multiple PMIDs), no space</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Upper case Selection_Random - okay</t>
-  </si>
-  <si>
-    <t>Lower case Selection_Random  - okay</t>
-  </si>
-  <si>
-    <t>Invalid Selection_Random</t>
-  </si>
-  <si>
-    <t>INVALID</t>
-  </si>
-  <si>
-    <t>UNKNOWNCOUNTRY</t>
-  </si>
-  <si>
-    <t>An unknown country name</t>
-  </si>
-  <si>
-    <t>%%%&amp;*</t>
-  </si>
-  <si>
-    <t>Invalid characters in city</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>UNKNOWN</t>
-  </si>
-  <si>
-    <t>Unknown institution</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>ABCD</t>
-  </si>
-  <si>
-    <t>Invalid collection month</t>
-  </si>
-  <si>
-    <t>Invalid collection day</t>
-  </si>
-  <si>
-    <t>HUMAN</t>
-  </si>
-  <si>
-    <t>Panda</t>
-  </si>
-  <si>
-    <t>Upper case host species - okay</t>
-  </si>
-  <si>
-    <t>Invalid host species</t>
-  </si>
-  <si>
-    <t>Unknown host species</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Camel</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Invalid gender</t>
-  </si>
-  <si>
-    <t>Valid host species, gender</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>Invalid characters in county/state, valid gender</t>
-  </si>
-  <si>
-    <t>Valid county/state, valid gender</t>
-  </si>
-  <si>
-    <t>Valid city, collection year, month and day</t>
-  </si>
-  <si>
-    <t>infant</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>Invalid collection year format, valid age group</t>
-  </si>
-  <si>
-    <t>Invalid collection month, valid age group</t>
-  </si>
-  <si>
-    <t>Adolescent</t>
-  </si>
-  <si>
-    <t>Child</t>
-  </si>
-  <si>
-    <t>Valid age years, months, weeks, days</t>
-  </si>
-  <si>
-    <t>Invalid age years, months, weeks, days</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Unkown</t>
-  </si>
-  <si>
-    <t>Valid age years, months, weeks, days, host status, disease type, disease onset, isolation source</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>ZOG</t>
-  </si>
-  <si>
-    <t>finger nails</t>
-  </si>
-  <si>
-    <t>Invalid host status, disease type, disease onset, isolation source</t>
-  </si>
-  <si>
-    <t>Valid host species, gender. Valid host status, disease type, disease onset combination</t>
-  </si>
-  <si>
-    <t>IIIIIIII</t>
-  </si>
-  <si>
-    <t>Lancefield</t>
-  </si>
-  <si>
-    <t>PCR, Lancefield</t>
-  </si>
-  <si>
-    <t>Multiple serotype method combination</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Test serotype methods, valid infection during pregnancy</t>
-  </si>
-  <si>
-    <t>HUH?</t>
-  </si>
-  <si>
-    <t>Invalid serotype, invalid infection during pregnancy</t>
-  </si>
-  <si>
-    <t>latex AGGLUTINATION</t>
-  </si>
-  <si>
-    <t>OTHER</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>invalid maternal infection type</t>
-  </si>
-  <si>
-    <t>ZZ</t>
-  </si>
-  <si>
-    <t>HHHH</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>Valid maternal infection type,. Invalid gestational age, birth weight, apgar score</t>
-  </si>
-  <si>
-    <t>Valid maternal infection type. Valid gestational age, birth weight, apgar score</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>broth dilution</t>
-  </si>
-  <si>
-    <t>BROTH DILUTION</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Etest</t>
-  </si>
-  <si>
-    <t>ETEST</t>
-  </si>
-  <si>
-    <t>agar dilution</t>
-  </si>
-  <si>
-    <t>AGAR dilution</t>
-  </si>
-  <si>
-    <t>Valid antibiotic values</t>
-  </si>
-  <si>
-    <t>ZZZ</t>
-  </si>
-  <si>
-    <t>CCC</t>
-  </si>
-  <si>
-    <t>DDD</t>
-  </si>
-  <si>
-    <t>EEE</t>
-  </si>
-  <si>
-    <t>FFF</t>
-  </si>
-  <si>
-    <t>HHH</t>
-  </si>
-  <si>
-    <t>MMMM</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I1</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>BBB</t>
-  </si>
-  <si>
-    <t>JJJJ</t>
-  </si>
-  <si>
-    <t>KKKK</t>
-  </si>
-  <si>
-    <t>LLLL</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>disk diffusion</t>
-  </si>
-  <si>
-    <t>DISK diffusion</t>
-  </si>
-  <si>
-    <t>Invalid antibiotic values</t>
-  </si>
-  <si>
-    <t>Fields too long</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00002</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00003</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00004</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00007</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00008</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00009</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00010</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00011</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00012</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00013</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00014</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00015</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00016</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00017</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00018</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00019</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00020</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00021</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00022</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00023</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00024</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00025</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00026</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00027</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00028</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00029</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00030</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00031</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00032</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00033</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00034</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00035</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00036</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00037</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00038</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00039</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00040</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00041</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00042</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00043</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00044</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00045</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00046</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00047</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00048</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00049</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00050</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00051</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00052</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00053</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00054</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00055</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00056TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTT</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00057</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00058</t>
-  </si>
-  <si>
-    <t>CD_XX_EW00001</t>
-  </si>
-  <si>
-    <t>CD-XX-EW00006</t>
+    <t>Valid gender</t>
+  </si>
+  <si>
+    <t>Valid host species. Valid host status, disease type, disease onset combination</t>
+  </si>
+  <si>
+    <t>Valid host species, gender, age_group</t>
+  </si>
+  <si>
+    <t>Valid ]host status, disease type, disease onset, isolation source</t>
+  </si>
+  <si>
+    <t>Invalid gestational age, birth weight, apgar score</t>
   </si>
 </sst>
 </file>
@@ -1993,20 +1978,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF82CAFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2033,6 +2004,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF82CAFA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2346,13 +2331,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D20E0B-D9B7-9D4B-8E55-FA666D513D8E}">
-  <dimension ref="A1:BL61"/>
+  <dimension ref="A1:BL60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2579,7 +2564,7 @@
         <v>84</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>82</v>
@@ -2609,7 +2594,7 @@
         <v>98</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>145</v>
+        <v>514</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>90</v>
@@ -2624,121 +2609,121 @@
         <v>92</v>
       </c>
       <c r="V2" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y2" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="Z2" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="X2" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>96</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>160</v>
+        <v>517</v>
       </c>
       <c r="AC2" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AD2" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AE2" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AF2" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AG2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="AH2" s="23" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AI2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="AJ2" s="23" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AK2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="AL2" s="23" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AM2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="AN2" s="23" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AO2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="AP2" s="23" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AQ2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="AR2" s="23" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AS2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="AT2" s="23" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AU2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="AV2" s="23" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AW2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="AX2" s="23" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AY2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="AZ2" s="23" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="BA2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="BB2" s="23" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="BC2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="BD2" s="23" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="BE2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="BF2" s="23" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="BG2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="BH2" s="23" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="BI2" s="6" t="s">
         <v>97</v>
@@ -2755,7 +2740,7 @@
         <v>105</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>106</v>
@@ -2926,30 +2911,30 @@
         <v>130</v>
       </c>
       <c r="BI3" s="4" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C4" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L4">
         <v>2014</v>
@@ -2957,14 +2942,11 @@
       <c r="O4" t="s">
         <v>136</v>
       </c>
-      <c r="P4" t="s">
-        <v>71</v>
-      </c>
       <c r="Q4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W4" t="s">
         <v>35</v>
@@ -2976,36 +2958,36 @@
         <v>25</v>
       </c>
       <c r="Z4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AA4" t="s">
         <v>137</v>
       </c>
       <c r="BI4" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C5" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L5">
         <v>2014</v>
@@ -3013,14 +2995,11 @@
       <c r="O5" t="s">
         <v>136</v>
       </c>
-      <c r="P5" t="s">
-        <v>71</v>
-      </c>
       <c r="Q5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="V5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W5" t="s">
         <v>35</v>
@@ -3032,36 +3011,36 @@
         <v>25</v>
       </c>
       <c r="Z5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AA5" t="s">
         <v>137</v>
       </c>
       <c r="BI5" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C6" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K6" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L6">
         <v>2014</v>
@@ -3069,14 +3048,11 @@
       <c r="O6" t="s">
         <v>136</v>
       </c>
-      <c r="P6" t="s">
-        <v>71</v>
-      </c>
       <c r="Q6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W6" t="s">
         <v>35</v>
@@ -3088,36 +3064,36 @@
         <v>25</v>
       </c>
       <c r="Z6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA6" t="s">
         <v>137</v>
       </c>
       <c r="BI6" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C7" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L7">
         <v>2014</v>
@@ -3125,14 +3101,11 @@
       <c r="O7" t="s">
         <v>136</v>
       </c>
-      <c r="P7" t="s">
-        <v>71</v>
-      </c>
       <c r="Q7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="V7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W7" t="s">
         <v>35</v>
@@ -3144,36 +3117,36 @@
         <v>25</v>
       </c>
       <c r="Z7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA7" t="s">
         <v>137</v>
       </c>
       <c r="BI7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C8" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H8" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K8" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L8">
         <v>2014</v>
@@ -3181,14 +3154,11 @@
       <c r="O8" t="s">
         <v>136</v>
       </c>
-      <c r="P8" t="s">
-        <v>71</v>
-      </c>
       <c r="Q8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W8" t="s">
         <v>35</v>
@@ -3200,36 +3170,36 @@
         <v>25</v>
       </c>
       <c r="Z8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AA8" t="s">
         <v>137</v>
       </c>
       <c r="BI8" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C9" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H9" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K9" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L9">
         <v>2014</v>
@@ -3237,14 +3207,11 @@
       <c r="O9" t="s">
         <v>136</v>
       </c>
-      <c r="P9" t="s">
-        <v>71</v>
-      </c>
       <c r="Q9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W9" t="s">
         <v>35</v>
@@ -3256,36 +3223,36 @@
         <v>25</v>
       </c>
       <c r="Z9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AA9" t="s">
         <v>137</v>
       </c>
       <c r="BI9" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C10" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="D10" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H10" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K10" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L10">
         <v>2014</v>
@@ -3293,14 +3260,11 @@
       <c r="O10" t="s">
         <v>136</v>
       </c>
-      <c r="P10" t="s">
-        <v>71</v>
-      </c>
       <c r="Q10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W10" t="s">
         <v>35</v>
@@ -3312,36 +3276,36 @@
         <v>25</v>
       </c>
       <c r="Z10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AA10" t="s">
         <v>137</v>
       </c>
       <c r="BI10" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C11" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="D11" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L11">
         <v>2014</v>
@@ -3349,14 +3313,11 @@
       <c r="O11" t="s">
         <v>136</v>
       </c>
-      <c r="P11" t="s">
-        <v>71</v>
-      </c>
       <c r="Q11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W11" t="s">
         <v>35</v>
@@ -3368,36 +3329,36 @@
         <v>25</v>
       </c>
       <c r="Z11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AA11" t="s">
         <v>137</v>
       </c>
       <c r="BI11" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C12" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="D12" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H12" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K12" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L12">
         <v>2014</v>
@@ -3405,14 +3366,11 @@
       <c r="O12" t="s">
         <v>136</v>
       </c>
-      <c r="P12" t="s">
-        <v>71</v>
-      </c>
       <c r="Q12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W12" t="s">
         <v>35</v>
@@ -3424,39 +3382,39 @@
         <v>25</v>
       </c>
       <c r="Z12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA12" t="s">
         <v>137</v>
       </c>
       <c r="BI12" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C13" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E13" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H13" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K13" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L13">
         <v>2014</v>
@@ -3464,14 +3422,11 @@
       <c r="O13" t="s">
         <v>136</v>
       </c>
-      <c r="P13" t="s">
-        <v>71</v>
-      </c>
       <c r="Q13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W13" t="s">
         <v>35</v>
@@ -3483,39 +3438,39 @@
         <v>25</v>
       </c>
       <c r="Z13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AA13" t="s">
         <v>137</v>
       </c>
       <c r="BI13" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C14" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F14" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H14" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K14" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L14">
         <v>2014</v>
@@ -3523,14 +3478,11 @@
       <c r="O14" t="s">
         <v>136</v>
       </c>
-      <c r="P14" t="s">
-        <v>71</v>
-      </c>
       <c r="Q14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W14" t="s">
         <v>35</v>
@@ -3542,39 +3494,39 @@
         <v>25</v>
       </c>
       <c r="Z14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AA14" t="s">
         <v>137</v>
       </c>
       <c r="BI14" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C15" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="D15" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F15" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H15" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L15">
         <v>2014</v>
@@ -3582,14 +3534,11 @@
       <c r="O15" t="s">
         <v>136</v>
       </c>
-      <c r="P15" t="s">
-        <v>71</v>
-      </c>
       <c r="Q15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W15" t="s">
         <v>35</v>
@@ -3601,39 +3550,39 @@
         <v>25</v>
       </c>
       <c r="Z15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA15" t="s">
         <v>137</v>
       </c>
       <c r="BI15" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C16" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="D16" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F16" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="G16" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H16" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L16">
         <v>2014</v>
@@ -3641,14 +3590,11 @@
       <c r="O16" t="s">
         <v>136</v>
       </c>
-      <c r="P16" t="s">
-        <v>71</v>
-      </c>
       <c r="Q16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W16" t="s">
         <v>35</v>
@@ -3660,39 +3606,39 @@
         <v>25</v>
       </c>
       <c r="Z16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AA16" t="s">
         <v>137</v>
       </c>
       <c r="BI16" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C17" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="D17" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F17" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H17" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K17" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L17">
         <v>2014</v>
@@ -3700,11 +3646,8 @@
       <c r="O17" t="s">
         <v>136</v>
       </c>
-      <c r="P17" t="s">
-        <v>71</v>
-      </c>
       <c r="Q17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="V17" t="s">
         <v>138</v>
@@ -3719,39 +3662,39 @@
         <v>28</v>
       </c>
       <c r="Z17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA17" t="s">
         <v>137</v>
       </c>
       <c r="BI17" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C18" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="D18" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F18" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H18" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L18">
         <v>2014</v>
@@ -3759,14 +3702,11 @@
       <c r="O18" t="s">
         <v>136</v>
       </c>
-      <c r="P18" t="s">
-        <v>71</v>
-      </c>
       <c r="Q18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W18" t="s">
         <v>35</v>
@@ -3778,39 +3718,39 @@
         <v>25</v>
       </c>
       <c r="Z18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AA18" t="s">
         <v>137</v>
       </c>
       <c r="BI18" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C19" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="D19" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="G19" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H19" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K19" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L19">
         <v>2014</v>
@@ -3818,11 +3758,8 @@
       <c r="O19" t="s">
         <v>136</v>
       </c>
-      <c r="P19" t="s">
-        <v>71</v>
-      </c>
       <c r="Q19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="V19" t="s">
         <v>138</v>
@@ -3837,36 +3774,36 @@
         <v>28</v>
       </c>
       <c r="Z19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AA19" t="s">
         <v>137</v>
       </c>
       <c r="BI19" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C20" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="D20" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G20" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="H20" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K20" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L20">
         <v>2014</v>
@@ -3874,14 +3811,11 @@
       <c r="O20" t="s">
         <v>136</v>
       </c>
-      <c r="P20" t="s">
-        <v>71</v>
-      </c>
       <c r="Q20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W20" t="s">
         <v>35</v>
@@ -3893,36 +3827,36 @@
         <v>25</v>
       </c>
       <c r="Z20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA20" t="s">
         <v>137</v>
       </c>
       <c r="BI20" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C21" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="D21" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G21" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H21" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K21" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L21">
         <v>2014</v>
@@ -3930,14 +3864,11 @@
       <c r="O21" t="s">
         <v>136</v>
       </c>
-      <c r="P21" t="s">
-        <v>71</v>
-      </c>
       <c r="Q21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W21" t="s">
         <v>35</v>
@@ -3949,36 +3880,36 @@
         <v>25</v>
       </c>
       <c r="Z21" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA21" t="s">
         <v>137</v>
       </c>
       <c r="BI21" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C22" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="D22" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H22" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K22" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L22">
         <v>2014</v>
@@ -3986,14 +3917,11 @@
       <c r="O22" t="s">
         <v>136</v>
       </c>
-      <c r="P22" t="s">
-        <v>71</v>
-      </c>
       <c r="Q22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W22" t="s">
         <v>35</v>
@@ -4005,36 +3933,36 @@
         <v>25</v>
       </c>
       <c r="Z22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AA22" t="s">
         <v>137</v>
       </c>
       <c r="BI22" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C23" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="D23" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G23" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H23" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K23" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L23">
         <v>2014</v>
@@ -4042,14 +3970,11 @@
       <c r="O23" t="s">
         <v>136</v>
       </c>
-      <c r="P23" t="s">
-        <v>71</v>
-      </c>
       <c r="Q23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W23" t="s">
         <v>35</v>
@@ -4061,36 +3986,36 @@
         <v>25</v>
       </c>
       <c r="Z23" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA23" t="s">
         <v>137</v>
       </c>
       <c r="BI23" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C24" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="D24" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G24" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H24" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="K24" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L24">
         <v>2014</v>
@@ -4098,14 +4023,11 @@
       <c r="O24" t="s">
         <v>136</v>
       </c>
-      <c r="P24" t="s">
-        <v>71</v>
-      </c>
       <c r="Q24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W24" t="s">
         <v>35</v>
@@ -4117,39 +4039,39 @@
         <v>25</v>
       </c>
       <c r="Z24" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA24" t="s">
         <v>137</v>
       </c>
       <c r="BI24" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C25" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="D25" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H25" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="I25" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="K25" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L25">
         <v>2014</v>
@@ -4158,13 +4080,13 @@
         <v>136</v>
       </c>
       <c r="P25" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="Q25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="V25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W25" t="s">
         <v>35</v>
@@ -4176,39 +4098,39 @@
         <v>25</v>
       </c>
       <c r="Z25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA25" t="s">
         <v>137</v>
       </c>
       <c r="BI25" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C26" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D26" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H26" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="I26" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="K26" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L26">
         <v>2014</v>
@@ -4217,13 +4139,13 @@
         <v>136</v>
       </c>
       <c r="P26" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="Q26" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V26" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W26" t="s">
         <v>35</v>
@@ -4235,39 +4157,39 @@
         <v>25</v>
       </c>
       <c r="Z26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA26" t="s">
         <v>137</v>
       </c>
       <c r="BI26" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C27" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="D27" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H27" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J27" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="K27" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L27">
         <v>2014</v>
@@ -4275,14 +4197,11 @@
       <c r="O27" t="s">
         <v>136</v>
       </c>
-      <c r="P27" t="s">
-        <v>71</v>
-      </c>
       <c r="Q27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W27" t="s">
         <v>35</v>
@@ -4294,39 +4213,39 @@
         <v>25</v>
       </c>
       <c r="Z27" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AA27" t="s">
         <v>137</v>
       </c>
       <c r="BI27" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C28" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="D28" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G28" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H28" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J28" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K28" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L28">
         <v>2015</v>
@@ -4340,14 +4259,11 @@
       <c r="O28" t="s">
         <v>136</v>
       </c>
-      <c r="P28" t="s">
-        <v>71</v>
-      </c>
       <c r="Q28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W28" t="s">
         <v>35</v>
@@ -4359,36 +4275,36 @@
         <v>25</v>
       </c>
       <c r="Z28" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AA28" t="s">
         <v>137</v>
       </c>
       <c r="BI28" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C29" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="D29" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G29" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H29" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K29" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="L29">
         <v>2015</v>
@@ -4396,14 +4312,11 @@
       <c r="O29" t="s">
         <v>136</v>
       </c>
-      <c r="P29" t="s">
-        <v>71</v>
-      </c>
       <c r="Q29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V29" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W29" t="s">
         <v>35</v>
@@ -4415,36 +4328,36 @@
         <v>25</v>
       </c>
       <c r="Z29" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AA29" t="s">
         <v>137</v>
       </c>
       <c r="BI29" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C30" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="D30" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G30" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H30" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K30" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -4452,14 +4365,11 @@
       <c r="O30" t="s">
         <v>136</v>
       </c>
-      <c r="P30" t="s">
-        <v>71</v>
-      </c>
       <c r="Q30" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="V30" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W30" t="s">
         <v>35</v>
@@ -4471,51 +4381,48 @@
         <v>25</v>
       </c>
       <c r="Z30" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AA30" t="s">
         <v>137</v>
       </c>
       <c r="BI30" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C31" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="D31" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H31" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K31" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="O31" t="s">
         <v>136</v>
       </c>
-      <c r="P31" t="s">
-        <v>71</v>
-      </c>
       <c r="Q31" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="V31" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W31" t="s">
         <v>35</v>
@@ -4527,36 +4434,36 @@
         <v>25</v>
       </c>
       <c r="Z31" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AA31" t="s">
         <v>137</v>
       </c>
       <c r="BI31" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C32" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="D32" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H32" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K32" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L32">
         <v>2015</v>
@@ -4567,14 +4474,11 @@
       <c r="O32" t="s">
         <v>136</v>
       </c>
-      <c r="P32" t="s">
-        <v>71</v>
-      </c>
       <c r="Q32" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="V32" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W32" t="s">
         <v>35</v>
@@ -4586,54 +4490,51 @@
         <v>25</v>
       </c>
       <c r="Z32" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA32" t="s">
         <v>137</v>
       </c>
       <c r="BI32" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C33" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="D33" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G33" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H33" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K33" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L33">
         <v>2015</v>
       </c>
       <c r="M33" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="O33" t="s">
         <v>136</v>
       </c>
-      <c r="P33" t="s">
-        <v>71</v>
-      </c>
       <c r="Q33" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V33" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W33" t="s">
         <v>35</v>
@@ -4645,36 +4546,36 @@
         <v>25</v>
       </c>
       <c r="Z33" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AA33" t="s">
         <v>137</v>
       </c>
       <c r="BI33" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C34" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D34" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G34" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H34" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K34" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L34">
         <v>2014</v>
@@ -4685,14 +4586,11 @@
       <c r="O34" t="s">
         <v>136</v>
       </c>
-      <c r="P34" t="s">
-        <v>71</v>
-      </c>
       <c r="Q34" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W34" t="s">
         <v>35</v>
@@ -4704,54 +4602,51 @@
         <v>25</v>
       </c>
       <c r="Z34" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AA34" t="s">
         <v>137</v>
       </c>
       <c r="BI34" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C35" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="D35" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G35" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H35" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K35" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L35">
         <v>2015</v>
       </c>
       <c r="N35" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="O35" t="s">
         <v>136</v>
       </c>
-      <c r="P35" t="s">
-        <v>71</v>
-      </c>
       <c r="Q35" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V35" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W35" t="s">
         <v>35</v>
@@ -4763,51 +4658,48 @@
         <v>25</v>
       </c>
       <c r="Z35" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA35" t="s">
         <v>137</v>
       </c>
       <c r="BI35" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C36" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="D36" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G36" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H36" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K36" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L36">
         <v>2015</v>
       </c>
       <c r="O36" t="s">
-        <v>385</v>
-      </c>
-      <c r="P36" t="s">
-        <v>71</v>
+        <v>378</v>
       </c>
       <c r="Q36" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V36" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W36" t="s">
         <v>35</v>
@@ -4819,51 +4711,48 @@
         <v>25</v>
       </c>
       <c r="Z36" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA36" t="s">
         <v>137</v>
       </c>
       <c r="BI36" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C37" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="D37" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G37" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H37" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K37" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L37">
         <v>2015</v>
       </c>
       <c r="O37" t="s">
-        <v>386</v>
-      </c>
-      <c r="P37" t="s">
-        <v>71</v>
+        <v>379</v>
       </c>
       <c r="Q37" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V37" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W37" t="s">
         <v>35</v>
@@ -4875,51 +4764,48 @@
         <v>25</v>
       </c>
       <c r="Z37" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AA37" t="s">
         <v>137</v>
       </c>
       <c r="BI37" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C38" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="D38" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H38" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K38" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L38">
         <v>2015</v>
       </c>
-      <c r="O38" t="s">
-        <v>71</v>
-      </c>
       <c r="P38" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="Q38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V38" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W38" t="s">
         <v>35</v>
@@ -4931,51 +4817,51 @@
         <v>25</v>
       </c>
       <c r="Z38" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AA38" t="s">
         <v>137</v>
       </c>
       <c r="BI38" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C39" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="D39" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G39" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H39" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K39" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L39">
         <v>2015</v>
       </c>
       <c r="O39" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="P39" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="Q39" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V39" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W39" t="s">
         <v>35</v>
@@ -4987,54 +4873,54 @@
         <v>25</v>
       </c>
       <c r="Z39" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AA39" t="s">
         <v>137</v>
       </c>
       <c r="BI39" t="s">
-        <v>394</v>
+        <v>518</v>
       </c>
     </row>
     <row r="40" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C40" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="D40" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G40" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H40" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K40" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L40">
         <v>2015</v>
       </c>
       <c r="O40" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="P40" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="Q40" t="s">
+        <v>151</v>
+      </c>
+      <c r="V40" t="s">
+        <v>155</v>
+      </c>
+      <c r="W40" t="s">
         <v>154</v>
-      </c>
-      <c r="V40" t="s">
-        <v>158</v>
-      </c>
-      <c r="W40" t="s">
-        <v>157</v>
       </c>
       <c r="X40" t="s">
         <v>140</v>
@@ -5043,36 +4929,36 @@
         <v>78</v>
       </c>
       <c r="Z40" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AA40" t="s">
         <v>137</v>
       </c>
       <c r="BI40" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C41" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="D41" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G41" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H41" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K41" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L41">
         <v>2015</v>
@@ -5080,11 +4966,8 @@
       <c r="O41" t="s">
         <v>68</v>
       </c>
-      <c r="P41" t="s">
-        <v>379</v>
-      </c>
       <c r="Q41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V41" t="s">
         <v>138</v>
@@ -5099,36 +4982,36 @@
         <v>25</v>
       </c>
       <c r="Z41" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA41" t="s">
         <v>137</v>
       </c>
       <c r="BI41" t="s">
-        <v>417</v>
+        <v>519</v>
       </c>
     </row>
     <row r="42" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C42" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="D42" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G42" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H42" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K42" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L42">
         <v>2015</v>
@@ -5136,14 +5019,8 @@
       <c r="O42" t="s">
         <v>136</v>
       </c>
-      <c r="P42" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>379</v>
-      </c>
       <c r="V42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W42" t="s">
         <v>35</v>
@@ -5155,36 +5032,36 @@
         <v>25</v>
       </c>
       <c r="Z42" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AA42" t="s">
         <v>137</v>
       </c>
       <c r="BI42" t="s">
-        <v>395</v>
+        <v>520</v>
       </c>
     </row>
     <row r="43" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C43" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="D43" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G43" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H43" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K43" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L43">
         <v>2015</v>
@@ -5192,11 +5069,8 @@
       <c r="O43" t="s">
         <v>136</v>
       </c>
-      <c r="P43" t="s">
-        <v>71</v>
-      </c>
       <c r="Q43" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="R43">
         <v>10</v>
@@ -5211,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="V43" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W43" t="s">
         <v>35</v>
@@ -5223,36 +5097,36 @@
         <v>25</v>
       </c>
       <c r="Z43" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA43" t="s">
         <v>137</v>
       </c>
       <c r="BI43" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C44" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="D44" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G44" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H44" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K44" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L44">
         <v>2015</v>
@@ -5260,11 +5134,8 @@
       <c r="O44" t="s">
         <v>136</v>
       </c>
-      <c r="P44" t="s">
-        <v>71</v>
-      </c>
       <c r="Q44" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R44">
         <v>11111</v>
@@ -5279,10 +5150,10 @@
         <v>4444444</v>
       </c>
       <c r="V44" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W44" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="X44" t="s">
         <v>140</v>
@@ -5291,36 +5162,36 @@
         <v>78</v>
       </c>
       <c r="Z44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AA44" t="s">
         <v>137</v>
       </c>
       <c r="BI44" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C45" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="D45" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G45" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H45" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K45" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L45">
         <v>2015</v>
@@ -5328,67 +5199,40 @@
       <c r="O45" t="s">
         <v>136</v>
       </c>
-      <c r="P45" t="s">
-        <v>71</v>
-      </c>
       <c r="Q45" t="s">
-        <v>154</v>
-      </c>
-      <c r="R45" t="s">
-        <v>409</v>
-      </c>
-      <c r="S45" t="s">
-        <v>409</v>
-      </c>
-      <c r="T45" t="s">
-        <v>409</v>
-      </c>
-      <c r="U45" t="s">
-        <v>409</v>
-      </c>
-      <c r="V45" t="s">
-        <v>409</v>
-      </c>
-      <c r="W45" t="s">
-        <v>410</v>
-      </c>
-      <c r="X45" t="s">
-        <v>409</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>409</v>
+        <v>151</v>
       </c>
       <c r="Z45" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA45" t="s">
         <v>137</v>
       </c>
       <c r="BI45" t="s">
-        <v>411</v>
+        <v>521</v>
       </c>
     </row>
     <row r="46" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C46" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="D46" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G46" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H46" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K46" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L46">
         <v>2015</v>
@@ -5396,32 +5240,29 @@
       <c r="O46" t="s">
         <v>136</v>
       </c>
-      <c r="P46" t="s">
-        <v>71</v>
-      </c>
       <c r="Q46" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V46" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="W46" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="X46" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="Y46" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="Z46" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AA46" t="s">
         <v>137</v>
       </c>
       <c r="BI46" s="25" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="BJ46" s="4"/>
       <c r="BK46" s="4"/>
@@ -5429,25 +5270,25 @@
     </row>
     <row r="47" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C47" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="D47" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G47" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H47" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K47" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L47">
         <v>2015</v>
@@ -5455,14 +5296,11 @@
       <c r="O47" t="s">
         <v>136</v>
       </c>
-      <c r="P47" t="s">
-        <v>71</v>
-      </c>
       <c r="Q47" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V47" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W47" t="s">
         <v>35</v>
@@ -5474,39 +5312,39 @@
         <v>25</v>
       </c>
       <c r="Z47" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AA47" t="s">
         <v>68</v>
       </c>
       <c r="AB47" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="BI47" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C48" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="D48" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H48" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K48" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L48">
         <v>2015</v>
@@ -5514,14 +5352,11 @@
       <c r="O48" t="s">
         <v>136</v>
       </c>
-      <c r="P48" t="s">
-        <v>71</v>
-      </c>
       <c r="Q48" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V48" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W48" t="s">
         <v>35</v>
@@ -5533,39 +5368,39 @@
         <v>25</v>
       </c>
       <c r="Z48" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AA48" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="AB48" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="BI48" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="49" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C49" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="D49" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G49" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H49" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K49" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L49">
         <v>2015</v>
@@ -5573,14 +5408,11 @@
       <c r="O49" t="s">
         <v>136</v>
       </c>
-      <c r="P49" t="s">
-        <v>71</v>
-      </c>
       <c r="Q49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V49" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W49" t="s">
         <v>35</v>
@@ -5592,39 +5424,39 @@
         <v>25</v>
       </c>
       <c r="Z49" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA49" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="AB49" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="BI49" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C50" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="D50" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G50" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H50" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K50" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L50">
         <v>2015</v>
@@ -5632,14 +5464,11 @@
       <c r="O50" t="s">
         <v>136</v>
       </c>
-      <c r="P50" t="s">
-        <v>71</v>
-      </c>
       <c r="Q50" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V50" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W50" t="s">
         <v>35</v>
@@ -5651,39 +5480,36 @@
         <v>25</v>
       </c>
       <c r="Z50" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA50" t="s">
-        <v>420</v>
-      </c>
-      <c r="AB50" t="s">
+        <v>408</v>
+      </c>
+      <c r="BI50" t="s">
         <v>409</v>
-      </c>
-      <c r="BI50" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="51" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C51" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="D51" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G51" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H51" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K51" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L51">
         <v>2015</v>
@@ -5691,14 +5517,11 @@
       <c r="O51" t="s">
         <v>136</v>
       </c>
-      <c r="P51" t="s">
-        <v>71</v>
-      </c>
       <c r="Q51" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V51" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W51" t="s">
         <v>35</v>
@@ -5710,48 +5533,42 @@
         <v>25</v>
       </c>
       <c r="Z51" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>409</v>
+        <v>161</v>
       </c>
       <c r="AD51" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="AE51" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="AF51" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="BI51" t="s">
-        <v>433</v>
+        <v>522</v>
       </c>
     </row>
     <row r="52" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C52" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="D52" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G52" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H52" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K52" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L52">
         <v>2015</v>
@@ -5759,17 +5576,14 @@
       <c r="O52" t="s">
         <v>136</v>
       </c>
-      <c r="P52" t="s">
-        <v>71</v>
-      </c>
       <c r="Q52" t="s">
+        <v>151</v>
+      </c>
+      <c r="V52" t="s">
+        <v>155</v>
+      </c>
+      <c r="W52" t="s">
         <v>154</v>
-      </c>
-      <c r="V52" t="s">
-        <v>158</v>
-      </c>
-      <c r="W52" t="s">
-        <v>157</v>
       </c>
       <c r="X52" t="s">
         <v>140</v>
@@ -5777,14 +5591,8 @@
       <c r="Y52" t="s">
         <v>79</v>
       </c>
-      <c r="Z52" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>137</v>
-      </c>
       <c r="AC52" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="AD52">
         <v>23</v>
@@ -5796,30 +5604,30 @@
         <v>9</v>
       </c>
       <c r="BI52" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
     </row>
     <row r="53" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C53" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="D53" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G53" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H53" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K53" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L53">
         <v>2015</v>
@@ -5827,20 +5635,17 @@
       <c r="O53" t="s">
         <v>136</v>
       </c>
-      <c r="P53" t="s">
-        <v>71</v>
-      </c>
       <c r="Q53" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V53" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W53" t="s">
         <v>35</v>
       </c>
       <c r="X53" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Y53" t="s">
         <v>25</v>
@@ -5852,42 +5657,33 @@
         <v>137</v>
       </c>
       <c r="AC53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD53" t="s">
-        <v>409</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>409</v>
-      </c>
-      <c r="AF53" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="BI53" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="54" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C54" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="D54" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G54" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H54" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K54" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L54">
         <v>2015</v>
@@ -5895,14 +5691,11 @@
       <c r="O54" t="s">
         <v>136</v>
       </c>
-      <c r="P54" t="s">
-        <v>71</v>
-      </c>
       <c r="Q54" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V54" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W54" t="s">
         <v>35</v>
@@ -5914,39 +5707,120 @@
         <v>25</v>
       </c>
       <c r="Z54" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="AA54" t="s">
         <v>137</v>
       </c>
-      <c r="AC54" t="s">
-        <v>428</v>
+      <c r="AG54" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>423</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>422</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>424</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>423</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>422</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>423</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>422</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>423</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>422</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>423</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>422</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>423</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>422</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>423</v>
+      </c>
+      <c r="AW54" t="s">
+        <v>422</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>423</v>
+      </c>
+      <c r="AY54" t="s">
+        <v>422</v>
+      </c>
+      <c r="AZ54" t="s">
+        <v>423</v>
+      </c>
+      <c r="BA54" t="s">
+        <v>422</v>
+      </c>
+      <c r="BB54" t="s">
+        <v>423</v>
+      </c>
+      <c r="BC54" t="s">
+        <v>422</v>
+      </c>
+      <c r="BD54" t="s">
+        <v>423</v>
+      </c>
+      <c r="BE54" t="s">
+        <v>422</v>
+      </c>
+      <c r="BF54" t="s">
+        <v>423</v>
+      </c>
+      <c r="BG54" t="s">
+        <v>422</v>
+      </c>
+      <c r="BH54" t="s">
+        <v>423</v>
       </c>
       <c r="BI54" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C55" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="D55" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G55" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H55" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K55" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L55">
         <v>2015</v>
@@ -5954,14 +5828,11 @@
       <c r="O55" t="s">
         <v>136</v>
       </c>
-      <c r="P55" t="s">
-        <v>71</v>
-      </c>
       <c r="Q55" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V55" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W55" t="s">
         <v>35</v>
@@ -5973,120 +5844,120 @@
         <v>25</v>
       </c>
       <c r="Z55" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AA55" t="s">
         <v>137</v>
       </c>
       <c r="AG55" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="AH55" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AI55" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="AJ55" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="AK55" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="AL55" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="AM55" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="AN55" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="AO55" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="AP55" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="AQ55" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="AR55" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="AS55" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="AT55" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="AU55" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="AV55" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="AW55" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="AX55" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="AY55" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="AZ55" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="BA55" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="BB55" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="BC55" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="BD55" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="BE55" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="BF55" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="BG55" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="BH55" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="BI55" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C56" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="D56" t="s">
+        <v>272</v>
+      </c>
+      <c r="G56" t="s">
+        <v>158</v>
+      </c>
+      <c r="H56" t="s">
+        <v>278</v>
+      </c>
+      <c r="K56" t="s">
         <v>277</v>
-      </c>
-      <c r="G56" t="s">
-        <v>162</v>
-      </c>
-      <c r="H56" t="s">
-        <v>284</v>
-      </c>
-      <c r="K56" t="s">
-        <v>283</v>
       </c>
       <c r="L56">
         <v>2015</v>
@@ -6094,139 +5965,136 @@
       <c r="O56" t="s">
         <v>136</v>
       </c>
-      <c r="P56" t="s">
-        <v>71</v>
-      </c>
       <c r="Q56" t="s">
+        <v>152</v>
+      </c>
+      <c r="V56" t="s">
+        <v>155</v>
+      </c>
+      <c r="W56" t="s">
         <v>154</v>
       </c>
-      <c r="V56" t="s">
-        <v>156</v>
-      </c>
-      <c r="W56" t="s">
-        <v>35</v>
-      </c>
       <c r="X56" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="Y56" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="Z56" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AA56" t="s">
         <v>137</v>
       </c>
       <c r="AG56" t="s">
-        <v>438</v>
-      </c>
-      <c r="AH56" t="s">
-        <v>440</v>
+        <v>453</v>
+      </c>
+      <c r="AH56" s="26" t="s">
+        <v>454</v>
       </c>
       <c r="AI56" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="AJ56" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="AK56" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="AL56" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="AM56" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="AN56" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="AO56" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="AP56" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="AQ56" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="AR56" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="AS56" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="AT56" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="AU56" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="AV56" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="AW56" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="AX56" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="AY56" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="AZ56" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="BA56" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="BB56" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="BC56" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="BD56" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="BE56" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="BF56" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="BG56" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="BH56" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="BI56" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C57" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="D57" t="s">
+        <v>273</v>
+      </c>
+      <c r="G57" t="s">
+        <v>158</v>
+      </c>
+      <c r="H57" t="s">
         <v>278</v>
       </c>
-      <c r="G57" t="s">
-        <v>162</v>
-      </c>
-      <c r="H57" t="s">
-        <v>284</v>
-      </c>
       <c r="K57" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L57">
         <v>2015</v>
@@ -6234,139 +6102,127 @@
       <c r="O57" t="s">
         <v>136</v>
       </c>
-      <c r="P57" t="s">
-        <v>71</v>
-      </c>
       <c r="Q57" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="V57" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="W57" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="X57" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="Y57" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="Z57" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AA57" t="s">
         <v>137</v>
       </c>
-      <c r="AG57" t="s">
-        <v>466</v>
-      </c>
-      <c r="AH57" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="AI57" t="s">
-        <v>466</v>
+      <c r="AG57">
+        <v>23</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>428</v>
+      </c>
+      <c r="AI57">
+        <v>1</v>
       </c>
       <c r="AJ57" t="s">
-        <v>468</v>
-      </c>
-      <c r="AK57" t="s">
-        <v>466</v>
-      </c>
-      <c r="AL57" t="s">
-        <v>467</v>
-      </c>
-      <c r="AM57" t="s">
-        <v>466</v>
-      </c>
-      <c r="AN57" t="s">
-        <v>467</v>
-      </c>
-      <c r="AO57" t="s">
-        <v>466</v>
-      </c>
-      <c r="AP57" t="s">
-        <v>467</v>
-      </c>
-      <c r="AQ57" t="s">
-        <v>466</v>
+        <v>429</v>
+      </c>
+      <c r="AK57">
+        <v>100</v>
+      </c>
+      <c r="AM57">
+        <v>23.2</v>
+      </c>
+      <c r="AO57">
+        <v>245.55555000000001</v>
+      </c>
+      <c r="AQ57">
+        <v>1</v>
       </c>
       <c r="AR57" t="s">
-        <v>467</v>
-      </c>
-      <c r="AS57" t="s">
-        <v>466</v>
+        <v>428</v>
+      </c>
+      <c r="AS57">
+        <v>1</v>
       </c>
       <c r="AT57" t="s">
-        <v>467</v>
-      </c>
-      <c r="AU57" t="s">
-        <v>466</v>
+        <v>428</v>
+      </c>
+      <c r="AU57">
+        <v>1</v>
       </c>
       <c r="AV57" t="s">
-        <v>467</v>
-      </c>
-      <c r="AW57" t="s">
-        <v>466</v>
+        <v>428</v>
+      </c>
+      <c r="AW57">
+        <v>0.23</v>
       </c>
       <c r="AX57" t="s">
-        <v>467</v>
-      </c>
-      <c r="AY57" t="s">
-        <v>466</v>
+        <v>428</v>
+      </c>
+      <c r="AY57">
+        <v>2.0009999999999999</v>
       </c>
       <c r="AZ57" t="s">
-        <v>467</v>
-      </c>
-      <c r="BA57" t="s">
-        <v>466</v>
+        <v>428</v>
+      </c>
+      <c r="BA57">
+        <v>12</v>
       </c>
       <c r="BB57" t="s">
-        <v>467</v>
-      </c>
-      <c r="BC57" t="s">
-        <v>466</v>
+        <v>428</v>
+      </c>
+      <c r="BC57">
+        <v>10</v>
       </c>
       <c r="BD57" t="s">
-        <v>467</v>
-      </c>
-      <c r="BE57" t="s">
-        <v>466</v>
+        <v>428</v>
+      </c>
+      <c r="BE57">
+        <v>10</v>
       </c>
       <c r="BF57" t="s">
-        <v>467</v>
-      </c>
-      <c r="BG57" t="s">
-        <v>466</v>
+        <v>428</v>
+      </c>
+      <c r="BG57">
+        <v>12</v>
       </c>
       <c r="BH57" t="s">
-        <v>467</v>
+        <v>428</v>
       </c>
       <c r="BI57" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="58" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C58" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="D58" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G58" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H58" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K58" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L58">
         <v>2015</v>
@@ -6374,130 +6230,133 @@
       <c r="O58" t="s">
         <v>136</v>
       </c>
-      <c r="P58" t="s">
-        <v>71</v>
-      </c>
       <c r="Q58" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V58" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W58" t="s">
         <v>35</v>
       </c>
       <c r="X58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y58" t="s">
         <v>25</v>
       </c>
       <c r="Z58" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AA58" t="s">
         <v>137</v>
       </c>
-      <c r="AG58">
-        <v>23</v>
-      </c>
       <c r="AH58" t="s">
+        <v>431</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>438</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>420</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>439</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>447</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>440</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>432</v>
+      </c>
+      <c r="AO58" t="s">
         <v>441</v>
       </c>
-      <c r="AI58">
-        <v>1</v>
-      </c>
-      <c r="AJ58" t="s">
+      <c r="AP58" t="s">
+        <v>433</v>
+      </c>
+      <c r="AQ58" t="s">
+        <v>452</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>434</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>385</v>
+      </c>
+      <c r="AT58" t="s">
+        <v>435</v>
+      </c>
+      <c r="AU58" t="s">
         <v>442</v>
       </c>
-      <c r="AK58">
-        <v>100</v>
-      </c>
-      <c r="AM58">
-        <v>23.2</v>
-      </c>
-      <c r="AO58">
-        <v>245.55555000000001</v>
-      </c>
-      <c r="AQ58">
-        <v>1</v>
-      </c>
-      <c r="AR58" t="s">
-        <v>441</v>
-      </c>
-      <c r="AS58">
-        <v>1</v>
-      </c>
-      <c r="AT58" t="s">
-        <v>441</v>
-      </c>
-      <c r="AU58">
-        <v>1</v>
-      </c>
       <c r="AV58" t="s">
-        <v>441</v>
-      </c>
-      <c r="AW58">
-        <v>0.23</v>
+        <v>401</v>
+      </c>
+      <c r="AW58" t="s">
+        <v>443</v>
       </c>
       <c r="AX58" t="s">
-        <v>441</v>
-      </c>
-      <c r="AY58">
-        <v>2.0009999999999999</v>
+        <v>436</v>
+      </c>
+      <c r="AY58" t="s">
+        <v>444</v>
       </c>
       <c r="AZ58" t="s">
-        <v>441</v>
-      </c>
-      <c r="BA58">
-        <v>12</v>
+        <v>161</v>
+      </c>
+      <c r="BA58" t="s">
+        <v>445</v>
       </c>
       <c r="BB58" t="s">
-        <v>441</v>
-      </c>
-      <c r="BC58">
-        <v>10</v>
+        <v>448</v>
+      </c>
+      <c r="BC58" t="s">
+        <v>446</v>
       </c>
       <c r="BD58" t="s">
-        <v>441</v>
-      </c>
-      <c r="BE58">
-        <v>10</v>
+        <v>449</v>
+      </c>
+      <c r="BE58" t="s">
+        <v>451</v>
       </c>
       <c r="BF58" t="s">
-        <v>441</v>
-      </c>
-      <c r="BG58">
-        <v>12</v>
+        <v>450</v>
+      </c>
+      <c r="BG58" t="s">
+        <v>382</v>
       </c>
       <c r="BH58" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="BI58" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C59" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="D59" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G59" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H59" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K59" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L59">
         <v>2015</v>
@@ -6505,136 +6364,52 @@
       <c r="O59" t="s">
         <v>136</v>
       </c>
-      <c r="P59" t="s">
-        <v>71</v>
-      </c>
       <c r="Q59" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V59" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W59" t="s">
         <v>35</v>
       </c>
       <c r="X59" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Y59" t="s">
         <v>25</v>
       </c>
       <c r="Z59" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AA59" t="s">
         <v>137</v>
       </c>
-      <c r="AH59" t="s">
-        <v>444</v>
-      </c>
-      <c r="AI59" t="s">
-        <v>451</v>
-      </c>
-      <c r="AJ59" t="s">
-        <v>432</v>
-      </c>
-      <c r="AK59" t="s">
-        <v>452</v>
-      </c>
-      <c r="AL59" t="s">
-        <v>460</v>
-      </c>
-      <c r="AM59" t="s">
-        <v>453</v>
-      </c>
-      <c r="AN59" t="s">
-        <v>445</v>
-      </c>
-      <c r="AO59" t="s">
-        <v>454</v>
-      </c>
-      <c r="AP59" t="s">
-        <v>446</v>
-      </c>
-      <c r="AQ59" t="s">
-        <v>465</v>
-      </c>
-      <c r="AR59" t="s">
-        <v>447</v>
-      </c>
-      <c r="AS59" t="s">
-        <v>393</v>
-      </c>
-      <c r="AT59" t="s">
-        <v>448</v>
-      </c>
-      <c r="AU59" t="s">
-        <v>455</v>
-      </c>
-      <c r="AV59" t="s">
-        <v>412</v>
-      </c>
-      <c r="AW59" t="s">
-        <v>456</v>
-      </c>
-      <c r="AX59" t="s">
-        <v>449</v>
-      </c>
-      <c r="AY59" t="s">
+      <c r="BI59" t="s">
         <v>457</v>
-      </c>
-      <c r="AZ59" t="s">
-        <v>165</v>
-      </c>
-      <c r="BA59" t="s">
-        <v>458</v>
-      </c>
-      <c r="BB59" t="s">
-        <v>461</v>
-      </c>
-      <c r="BC59" t="s">
-        <v>459</v>
-      </c>
-      <c r="BD59" t="s">
-        <v>462</v>
-      </c>
-      <c r="BE59" t="s">
-        <v>464</v>
-      </c>
-      <c r="BF59" t="s">
-        <v>463</v>
-      </c>
-      <c r="BG59" t="s">
-        <v>390</v>
-      </c>
-      <c r="BH59" t="s">
-        <v>450</v>
-      </c>
-      <c r="BI59" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="60" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C60" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="D60" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G60" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H60" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K60" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L60">
         <v>2015</v>
@@ -6642,110 +6417,51 @@
       <c r="O60" t="s">
         <v>136</v>
       </c>
-      <c r="P60" t="s">
-        <v>71</v>
-      </c>
       <c r="Q60" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V60" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="W60" t="s">
         <v>35</v>
       </c>
       <c r="X60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y60" t="s">
         <v>25</v>
       </c>
       <c r="Z60" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AA60" t="s">
         <v>137</v>
       </c>
-      <c r="BI60" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="61" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A61" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="C61" t="s">
-        <v>525</v>
-      </c>
-      <c r="D61" t="s">
-        <v>282</v>
-      </c>
-      <c r="G61" t="s">
-        <v>162</v>
-      </c>
-      <c r="H61" t="s">
-        <v>284</v>
-      </c>
-      <c r="K61" t="s">
-        <v>283</v>
-      </c>
-      <c r="L61">
-        <v>2015</v>
-      </c>
-      <c r="O61" t="s">
-        <v>136</v>
-      </c>
-      <c r="P61" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>154</v>
-      </c>
-      <c r="V61" t="s">
-        <v>156</v>
-      </c>
-      <c r="W61" t="s">
-        <v>35</v>
-      </c>
-      <c r="X61" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>137</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:B61">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+  <conditionalFormatting sqref="B4:B60">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>LEN(B4)&gt;20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D2">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1095:AF9959" xr:uid="{15E43983-959C-4548-AE8B-15115BCFDA2A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1094:AF9958" xr:uid="{15E43983-959C-4548-AE8B-15115BCFDA2A}">
       <formula1>$Y$3:$Y$7</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Supplier Sample Name" error="Name must be a maximum of 20 characters in length." promptTitle="Supplier Sample Name" prompt="Please enter a sample name up to a maximum of 20 characters in length. Only include characters A-Z, 0-9 and underscores." sqref="B4:B61" xr:uid="{ED0D04B7-4604-7342-9C3B-1E61FE49F568}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Supplier Sample Name" error="Name must be a maximum of 20 characters in length." promptTitle="Supplier Sample Name" prompt="Please enter a sample name up to a maximum of 20 characters in length. Only include characters A-Z, 0-9 and underscores." sqref="B4:B60" xr:uid="{ED0D04B7-4604-7342-9C3B-1E61FE49F568}">
       <formula1>20</formula1>
     </dataValidation>
   </dataValidations>
@@ -6758,7 +6474,7 @@
           <x14:formula1>
             <xm:f>'Entry values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>N1095:N9959 AC1095:AC9959 R1095:U9959</xm:sqref>
+          <xm:sqref>N1094:N9958 AC1094:AC9958 R1094:U9958</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
